--- a/FoodBuddy_DevRole/Documents/Contribution_statement.xlsx
+++ b/FoodBuddy_DevRole/Documents/Contribution_statement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dalhosie Projects Term 1\ASDC\group14\group14\FoodBuddy_DevRole\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9451B-EE85-4405-B8A9-95618C25B515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21682BEB-A554-4ECF-88B3-A9CC7CE76B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E574851-A635-9542-85D8-F0B911F25DBF}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>Inventory Management/ Expense / Login</t>
   </si>
   <si>
-    <t>Register/ Receipe/ Group Management</t>
+    <t>User Management/ Receipe/ Group Management</t>
   </si>
 </sst>
 </file>
